--- a/material/Percieved performance exercise.xlsx
+++ b/material/Percieved performance exercise.xlsx
@@ -56,7 +56,7 @@
     <r>
       <rPr/>
       <t xml:space="preserve">
-[Website 4 URL]
+https://www.rtlnieuws.nl/economie/artikel/5405886/geen-meerjarig-energiecontract-voor-bezitters-zonnepanelen
 </t>
     </r>
     <r>
